--- a/content/YEU_AddressClusterReport.xlsx
+++ b/content/YEU_AddressClusterReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarshItkar\Projects\Jupyter workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarshItkar\Projects\Jupyter workspace\RedundancyReportGenerator\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928574B-AA72-408D-A5DD-B0600A2DA9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D673F6-8C57-42CB-8E36-E64E27C81B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4669,22 +4669,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="174.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="192.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
